--- a/target/classes/testdesign/testcontroller/master.xlsx
+++ b/target/classes/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/Workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F929B8F6-7423-4623-A5CB-667B2253B52C}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68EF597F-24F6-4CC5-BFB8-FFDAA97B114B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>Application_Name</t>
   </si>
@@ -246,119 +246,73 @@
     <t>Launch and login to application.Capture customer details</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>F9Z2G8A</t>
   </si>
   <si>
-    <t>'2021/10/28 21:20:47</t>
-  </si>
-  <si>
-    <t>'2021/10/28 21:23:42</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>'2021/10/28 21:27:11</t>
-  </si>
-  <si>
-    <t>'2021/10/28 21:28:09</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:25:56</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:34:02</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:45:36</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:47:15</t>
-  </si>
-  <si>
-    <t>'2021/10/29 12:45:26</t>
-  </si>
-  <si>
-    <t>'2021/10/29 12:46:27</t>
-  </si>
-  <si>
-    <t>'2021/11/01 12:06:36</t>
-  </si>
-  <si>
-    <t>'2021/11/01 12:10:17</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:22:05</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:24:39</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:53:03</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:53:37</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:56:47</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:59:10</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:12:55</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:13:26</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:47:29</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:49:52</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:34:27</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:36:04</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:45:31</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:46:26</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:47:45</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:50:05</t>
-  </si>
-  <si>
-    <t>'2021/11/01 17:42:10</t>
-  </si>
-  <si>
-    <t>'2021/11/01 17:43:00</t>
-  </si>
-  <si>
     <t>'2021/11/08 20:41:18</t>
   </si>
   <si>
     <t>'2021/11/08 20:42:20</t>
+  </si>
+  <si>
+    <t>EPP_TC005</t>
+  </si>
+  <si>
+    <t>Cancel a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC006</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Release a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC007</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Repair And Approve a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC008</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Repair And Cancel a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC009</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with FutureDated</t>
+  </si>
+  <si>
+    <t>EPP_TC010</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with Over limit Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -829,15 +783,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -859,7 +813,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -898,7 +852,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -922,22 +876,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1258,22 +1211,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1319,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1368,6 +1321,90 @@
       </c>
       <c r="F5" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1379,22 +1416,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="53.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1449,16 +1486,16 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
